--- a/ExperimentalData/Induced EMF/Induced Rectangular 2015-11-29.xlsx
+++ b/ExperimentalData/Induced EMF/Induced Rectangular 2015-11-29.xlsx
@@ -3301,128 +3301,128 @@
       <sheetData sheetId="0">
         <row r="11">
           <cell r="H11">
-            <v>46.4</v>
+            <v>71.7</v>
           </cell>
-          <cell r="K11">
-            <v>2.0499999999999997E-3</v>
-          </cell>
-          <cell r="P11">
-            <v>38.148803377037289</v>
+          <cell r="L11">
+            <v>1.82E-3</v>
           </cell>
           <cell r="Q11">
-            <v>30.00719111254816</v>
+            <v>104.26588414879198</v>
+          </cell>
+          <cell r="R11">
+            <v>32.289514747026963</v>
           </cell>
         </row>
         <row r="12">
           <cell r="H12">
-            <v>36</v>
+            <v>57.83</v>
           </cell>
-          <cell r="K12">
-            <v>3.3600000000000006E-3</v>
-          </cell>
-          <cell r="P12">
-            <v>23.778110103471668</v>
+          <cell r="L12">
+            <v>3.6000000000000016E-3</v>
           </cell>
           <cell r="Q12">
-            <v>22.444802782402533</v>
+            <v>48.54124107366092</v>
+          </cell>
+          <cell r="R12">
+            <v>25.059642204086153</v>
           </cell>
         </row>
         <row r="13">
           <cell r="H13">
-            <v>32.799999999999997</v>
+            <v>53.8</v>
           </cell>
-          <cell r="K13">
-            <v>3.8600000000000006E-3</v>
-          </cell>
-          <cell r="P13">
-            <v>20.841317235038289</v>
+          <cell r="L13">
+            <v>4.5900000000000021E-3</v>
           </cell>
           <cell r="Q13">
-            <v>21.090415915292187</v>
+            <v>36.449239291437713</v>
+          </cell>
+          <cell r="R13">
+            <v>22.629806155835311</v>
           </cell>
         </row>
         <row r="14">
           <cell r="H14">
-            <v>28</v>
+            <v>49.5</v>
           </cell>
-          <cell r="K14">
-            <v>5.13E-3</v>
-          </cell>
-          <cell r="P14">
-            <v>15.917191984194897</v>
+          <cell r="L14">
+            <v>5.5300000000000011E-3</v>
           </cell>
           <cell r="Q14">
-            <v>18.409386786381582</v>
+            <v>29.067965022400237</v>
+          </cell>
+          <cell r="R14">
+            <v>20.832555614835247</v>
           </cell>
         </row>
         <row r="15">
           <cell r="H15">
-            <v>23.2</v>
+            <v>46.6</v>
           </cell>
-          <cell r="K15">
-            <v>6.9100000000000012E-3</v>
-          </cell>
-          <cell r="P15">
-            <v>12.003251358613769</v>
+          <cell r="L15">
+            <v>6.4800000000000023E-3</v>
           </cell>
           <cell r="Q15">
-            <v>15.762704499307272</v>
+            <v>23.854198460626375</v>
+          </cell>
+          <cell r="R15">
+            <v>19.354003045547632</v>
           </cell>
         </row>
         <row r="16">
           <cell r="H16">
-            <v>20</v>
+            <v>44.9</v>
           </cell>
-          <cell r="K16">
-            <v>8.09E-3</v>
-          </cell>
-          <cell r="P16">
-            <v>10.331229166227633</v>
+          <cell r="L16">
+            <v>7.6E-3</v>
           </cell>
           <cell r="Q16">
-            <v>14.438133504101174</v>
+            <v>19.450800721698304</v>
+          </cell>
+          <cell r="R16">
+            <v>17.918568439672637</v>
           </cell>
         </row>
         <row r="17">
           <cell r="H17">
-            <v>17.600000000000001</v>
+            <v>43.5</v>
           </cell>
-          <cell r="K17">
-            <v>9.7199999999999995E-3</v>
-          </cell>
-          <cell r="P17">
-            <v>8.6653282952431656</v>
+          <cell r="L17">
+            <v>8.2900000000000005E-3</v>
           </cell>
           <cell r="Q17">
-            <v>12.969526834883233</v>
+            <v>17.36123101761379</v>
+          </cell>
+          <cell r="R17">
+            <v>17.159308786835378</v>
           </cell>
         </row>
         <row r="18">
           <cell r="H18">
-            <v>13.6</v>
+            <v>41.5</v>
           </cell>
-          <cell r="K18">
-            <v>1.2019999999999999E-2</v>
-          </cell>
-          <cell r="P18">
-            <v>7.052207705635487</v>
+          <cell r="L18">
+            <v>9.4400000000000005E-3</v>
           </cell>
           <cell r="Q18">
-            <v>11.376287160309106</v>
+            <v>14.598979758905116</v>
+          </cell>
+          <cell r="R18">
+            <v>16.0564755666285</v>
           </cell>
         </row>
         <row r="19">
           <cell r="H19">
-            <v>11.2</v>
+            <v>40.299999999999997</v>
           </cell>
-          <cell r="K19">
-            <v>1.4930000000000001E-2</v>
-          </cell>
-          <cell r="P19">
-            <v>5.691486930020111</v>
+          <cell r="L19">
+            <v>1.0250000000000002E-2</v>
           </cell>
           <cell r="Q19">
-            <v>9.8746717240016277</v>
+            <v>13.051705592588204</v>
+          </cell>
+          <cell r="R19">
+            <v>15.378315387404417</v>
           </cell>
         </row>
       </sheetData>
